--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/非金融企业部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/非金融企业部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,37 +538,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-222.12</v>
+        <v>3354.4243182943</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-450.16</v>
+        <v>-4040.016075295</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>23346</v>
+      </c>
       <c r="M2" t="n">
-        <v>3661.76</v>
+        <v>12529.0409945977</v>
       </c>
       <c r="N2" t="n">
-        <v>1398.94</v>
+        <v>18532.8798</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>9413.6</v>
+        <v>64263.6771585244</v>
       </c>
       <c r="R2" t="n">
-        <v>13802.03</v>
+        <v>117986.006196121</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -577,37 +579,39 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>243.08853732</v>
+        <v>2466</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>549.77667067728</v>
+        <v>-2259</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>10271</v>
+      </c>
       <c r="M3" t="n">
-        <v>4081.22125629</v>
+        <v>14224</v>
       </c>
       <c r="N3" t="n">
-        <v>1286.73846</v>
+        <v>19397</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>14485.9676524741</v>
+        <v>66963</v>
       </c>
       <c r="R3" t="n">
-        <v>20646.7925767614</v>
+        <v>111061</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -616,39 +620,39 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>400.30949016</v>
+        <v>1429</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1376.73979809064</v>
+        <v>-5014</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>10499</v>
+      </c>
       <c r="M4" t="n">
-        <v>3896.54003163</v>
+        <v>15932</v>
       </c>
       <c r="N4" t="n">
-        <v>1795.6</v>
+        <v>24660</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>23734.8492713286</v>
+        <v>91609</v>
       </c>
       <c r="R4" t="n">
-        <v>31204.0385912092</v>
+        <v>139116</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -657,37 +661,39 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1540.632874928</v>
+        <v>3131.60032620833</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>2135.12870296658</v>
+        <v>-4788.00228444219</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>7755.65541204741</v>
+      </c>
       <c r="M5" t="n">
-        <v>4546.982824944</v>
+        <v>15925.842781894</v>
       </c>
       <c r="N5" t="n">
-        <v>2013.6968736</v>
+        <v>22340.062411152</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>17707.5720364847</v>
+        <v>103757.271106187</v>
       </c>
       <c r="R5" t="n">
-        <v>27944.0133129233</v>
+        <v>148122.429753046</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -696,37 +702,41 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2079.957086427</v>
+        <v>-160</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-1373.439017159</v>
+        <v>-8544</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>-1198</v>
+      </c>
       <c r="M6" t="n">
-        <v>6481.824423327</v>
+        <v>17626</v>
       </c>
       <c r="N6" t="n">
-        <v>3084.390411</v>
+        <v>33300</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>19165.8091289808</v>
+        <v>101873</v>
       </c>
       <c r="R6" t="n">
-        <v>29438.5420325758</v>
+        <v>142908</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
@@ -735,37 +745,41 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>32000</v>
+      </c>
       <c r="E7" t="n">
-        <v>1047</v>
+        <v>-3909.9685885672</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1027</v>
+        <v>-11741.5030810006</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>-10568.5299693679</v>
+      </c>
       <c r="M7" t="n">
-        <v>6226</v>
+        <v>15168.8111778907</v>
       </c>
       <c r="N7" t="n">
-        <v>5080</v>
+        <v>37096.8944043376</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>26403</v>
+        <v>82867.2053134084</v>
       </c>
       <c r="R7" t="n">
-        <v>37729</v>
+        <v>140912.909256701</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -774,37 +788,41 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1835.31980397812</v>
+      </c>
       <c r="E8" t="n">
-        <v>2054</v>
+        <v>1648.86783589426</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1159</v>
+        <v>-14792.8527594584</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>-19531.0557049216</v>
+      </c>
       <c r="M8" t="n">
-        <v>9248</v>
+        <v>11328.8078809074</v>
       </c>
       <c r="N8" t="n">
-        <v>7760</v>
+        <v>49750.9489519229</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>26471</v>
+        <v>110003.40422446</v>
       </c>
       <c r="R8" t="n">
-        <v>46691</v>
+        <v>140243.440232783</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -813,37 +831,39 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>818</v>
+      </c>
       <c r="E9" t="n">
-        <v>-1322</v>
+        <v>549</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1814</v>
+        <v>-14982</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>5381</v>
+      </c>
       <c r="M9" t="n">
-        <v>10271</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8733</v>
-      </c>
+        <v>11358</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>42092</v>
+        <v>113137</v>
       </c>
       <c r="R9" t="n">
-        <v>57960</v>
+        <v>128791</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -852,37 +872,39 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1798.63363844977</v>
+      </c>
       <c r="E10" t="n">
-        <v>2190</v>
+        <v>3175.33639225344</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-2975</v>
+        <v>-10601.2964909353</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>-6342.8544505233</v>
+      </c>
       <c r="M10" t="n">
-        <v>5341</v>
-      </c>
-      <c r="N10" t="n">
-        <v>16810</v>
-      </c>
+        <v>13465.9291064814</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>78990</v>
+        <v>49159.972481336</v>
       </c>
       <c r="R10" t="n">
-        <v>100357</v>
+        <v>75711.9931234158</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -891,39 +913,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>3654.9654688928</v>
+      </c>
       <c r="E11" t="n">
-        <v>3354.4243182943</v>
+        <v>-1487.74075789901</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-4040.016075295</v>
+        <v>-16086.3885620607</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>23346</v>
+        <v>-4756.7244456253</v>
       </c>
       <c r="M11" t="n">
-        <v>12529.0409945977</v>
-      </c>
-      <c r="N11" t="n">
-        <v>18532.8798</v>
-      </c>
+        <v>10748.8538581077</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>64263.6771585244</v>
+        <v>67630.82116519081</v>
       </c>
       <c r="R11" t="n">
-        <v>117986.006196121</v>
+        <v>94134.2637925212</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -932,377 +954,43 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>-4070.25989031048</v>
+      </c>
       <c r="E12" t="n">
-        <v>2466</v>
+        <v>488.98361033592</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-2259</v>
+        <v>-12190.2123217008</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>10271</v>
+        <v>1745.9047862114</v>
       </c>
       <c r="M12" t="n">
-        <v>14224</v>
-      </c>
-      <c r="N12" t="n">
-        <v>19397</v>
-      </c>
+        <v>14655.7854152705</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>66963</v>
+        <v>95829.929577663</v>
       </c>
       <c r="R12" t="n">
-        <v>111061</v>
+        <v>147711.529429433</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1429</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>-5014</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>10499</v>
-      </c>
-      <c r="M13" t="n">
-        <v>15932</v>
-      </c>
-      <c r="N13" t="n">
-        <v>24660</v>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>91609</v>
-      </c>
-      <c r="R13" t="n">
-        <v>139116</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>3131.60032620833</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>-4788.00228444219</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>7755.65541204741</v>
-      </c>
-      <c r="M14" t="n">
-        <v>15925.842781894</v>
-      </c>
-      <c r="N14" t="n">
-        <v>22340.062411152</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>103757.271106187</v>
-      </c>
-      <c r="R14" t="n">
-        <v>148122.429753046</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>-160</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>-8544</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>-1198</v>
-      </c>
-      <c r="M15" t="n">
-        <v>17626</v>
-      </c>
-      <c r="N15" t="n">
-        <v>33300</v>
-      </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>101873</v>
-      </c>
-      <c r="R15" t="n">
-        <v>142908</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>32000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-3909.9685885672</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>-11741.5030810006</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>-10568.5299693679</v>
-      </c>
-      <c r="M16" t="n">
-        <v>15168.8111778907</v>
-      </c>
-      <c r="N16" t="n">
-        <v>37096.8944043376</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>82867.2053134084</v>
-      </c>
-      <c r="R16" t="n">
-        <v>140912.909256701</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>1835.31980397812</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1648.86783589426</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>-14792.8527594584</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>-19531.0557049216</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11328.8078809074</v>
-      </c>
-      <c r="N17" t="n">
-        <v>49750.9489519229</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>110003.40422446</v>
-      </c>
-      <c r="R17" t="n">
-        <v>140243.440232783</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>818</v>
-      </c>
-      <c r="E18" t="n">
-        <v>549</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>-14982</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>5381</v>
-      </c>
-      <c r="M18" t="n">
-        <v>11358</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>113137</v>
-      </c>
-      <c r="R18" t="n">
-        <v>128791</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1798.63363844977</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3175.33639225344</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>-10601.2964909353</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>-6342.8544505233</v>
-      </c>
-      <c r="M19" t="n">
-        <v>13465.9291064814</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>49159.972481336</v>
-      </c>
-      <c r="R19" t="n">
-        <v>75711.9931234158</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>3654.9654688928</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-1487.74075789901</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>-16086.3885620607</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>-4756.7244456253</v>
-      </c>
-      <c r="M20" t="n">
-        <v>10748.8538581077</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>67630.82116519081</v>
-      </c>
-      <c r="R20" t="n">
-        <v>94134.2637925212</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
